--- a/Data/RawData/YPE_Data/YPE_31_NorthCraneCreek/Digital Data_YPE31/YPE_PILAdata_Plot_31.xlsx
+++ b/Data/RawData/YPE_Data/YPE_31_NorthCraneCreek/Digital Data_YPE31/YPE_PILAdata_Plot_31.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5e34XeuhWhzilV1aAxutgsMNIv4aInImcP4/H0KyNIU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Ep43FPeEUl9OFKkS4Q1ounU+8u0BH+JdCDeTOX1UJV4="/>
     </ext>
   </extLst>
 </workbook>
@@ -813,6 +813,12 @@
       <c r="K2" s="4">
         <v>187.0</v>
       </c>
+      <c r="L2" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N2" s="4">
         <v>0.0</v>
       </c>
@@ -967,6 +973,12 @@
       <c r="K3" s="4">
         <v>187.0</v>
       </c>
+      <c r="L3" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N3" s="4">
         <v>0.0</v>
       </c>
@@ -1120,6 +1132,12 @@
       <c r="K4" s="4">
         <v>187.0</v>
       </c>
+      <c r="L4" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N4" s="4">
         <v>0.0</v>
       </c>
@@ -1273,6 +1291,12 @@
       <c r="K5" s="4">
         <v>187.0</v>
       </c>
+      <c r="L5" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N5" s="4">
         <v>0.0</v>
       </c>
@@ -1426,6 +1450,12 @@
       <c r="K6" s="4">
         <v>187.0</v>
       </c>
+      <c r="L6" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N6" s="4">
         <v>0.0</v>
       </c>
@@ -1579,6 +1609,12 @@
       <c r="K7" s="4">
         <v>187.0</v>
       </c>
+      <c r="L7" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N7" s="4">
         <v>0.0</v>
       </c>
@@ -1732,6 +1768,12 @@
       <c r="K8" s="4">
         <v>187.0</v>
       </c>
+      <c r="L8" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N8" s="4">
         <v>0.0</v>
       </c>
@@ -1885,6 +1927,12 @@
       <c r="K9" s="4">
         <v>187.0</v>
       </c>
+      <c r="L9" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4185849.0</v>
+      </c>
       <c r="N9" s="4">
         <v>0.0</v>
       </c>
@@ -2045,6 +2093,12 @@
       </c>
       <c r="K10" s="4">
         <v>187.0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>250174.0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4185849.0</v>
       </c>
       <c r="N10" s="4">
         <v>0.0</v>
